--- a/data/hotels_by_city/Houston/Houston_shard_426.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_426.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30171-d1200598-Reviews-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-La-Quinta-Inn-Suites-Angleton.h2319430.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1680 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r588733846-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>30171</t>
+  </si>
+  <si>
+    <t>1200598</t>
+  </si>
+  <si>
+    <t>588733846</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Warm &amp; Friendly Place to Stay</t>
+  </si>
+  <si>
+    <t>The front desk staff and the housekeepers are extremely warm and friendly.  It's absolutely the nicest place to stay in Angleton and only a few dollars more than the next best place (BW), which doesn't come close to cleanliness and comfort. (I stayed in both) And they have these killer cookies all over the lobby!!  Also have a nice complimentary breakfast selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>The front desk staff and the housekeepers are extremely warm and friendly.  It's absolutely the nicest place to stay in Angleton and only a few dollars more than the next best place (BW), which doesn't come close to cleanliness and comfort. (I stayed in both) And they have these killer cookies all over the lobby!!  Also have a nice complimentary breakfast selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r586566254-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>586566254</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>Really enjoyed this LaQuinta, had a bad experience years ago and refused to stay again, but was forced to use one due to work and I'm glad I did :-). Only down side is that the treadmill in the fitness room was not working so it forced me to go outside to run. Otherwise great experience and I will use them again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Really enjoyed this LaQuinta, had a bad experience years ago and refused to stay again, but was forced to use one due to work and I'm glad I did :-). Only down side is that the treadmill in the fitness room was not working so it forced me to go outside to run. Otherwise great experience and I will use them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r584935921-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>584935921</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Friendliest staff I've had in a long time!</t>
+  </si>
+  <si>
+    <t>Drove in from DFW for a surgery to stay a few nights to recover. Cleanliness was top priority and we got it. Internet however was awful, couldn't rely on it so made being bed ridden though. Overall B+ MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Drove in from DFW for a surgery to stay a few nights to recover. Cleanliness was top priority and we got it. Internet however was awful, couldn't rely on it so made being bed ridden though. Overall B+ More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r559115071-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>559115071</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>check in and helpfulness</t>
+  </si>
+  <si>
+    <t>tahiana was so helpful and went the extra mile to ensure my check in was smooth,she allowed me to email her personal email to get copies of my paper D.L. and company credit card.also my coworks who checked in after me had mentioned that she was very helpful . please give Tahiana a thank you on behalf of Airgas Nitrogen services.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>tahiana was so helpful and went the extra mile to ensure my check in was smooth,she allowed me to email her personal email to get copies of my paper D.L. and company credit card.also my coworks who checked in after me had mentioned that she was very helpful . please give Tahiana a thank you on behalf of Airgas Nitrogen services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r557523845-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>557523845</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Great room, Great staff</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at a lot of LaQuinta hotels. This hotel was by far the best, starting with the front desk clerk Mimi, who was very friendly and professional as she helped us. Once checked in my room was very clean and Ty-Shell made sure that it stayed that way, she asked every day if I needed anything and if there was anything else she could do for me. The atmosphere was very safe and quiet. I would recommend this location to everyone. Thank you LaQuinta Angleton you don’t find service like this every where. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at a lot of LaQuinta hotels. This hotel was by far the best, starting with the front desk clerk Mimi, who was very friendly and professional as she helped us. Once checked in my room was very clean and Ty-Shell made sure that it stayed that way, she asked every day if I needed anything and if there was anything else she could do for me. The atmosphere was very safe and quiet. I would recommend this location to everyone. Thank you LaQuinta Angleton you don’t find service like this every where. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r555748133-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>555748133</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>clean apartments</t>
+  </si>
+  <si>
+    <t>Ariel was very helpful and mimi was welcoming. overall, pleasant stay so far. Spacious parking lot and right next to a buccees. Way better experience than the bay city location. would recommend to anyone in angletonMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Ariel was very helpful and mimi was welcoming. overall, pleasant stay so far. Spacious parking lot and right next to a buccees. Way better experience than the bay city location. would recommend to anyone in angletonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r555066437-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>555066437</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Good hotel with great service! Rooms are clean and bed is comfortable. Price is a bit on the high side for the value. Location is excellent and only minutes to center of Angleton. I would recommend this hotel to othersMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Good hotel with great service! Rooms are clean and bed is comfortable. Price is a bit on the high side for the value. Location is excellent and only minutes to center of Angleton. I would recommend this hotel to othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r554730221-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>554730221</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Easy Check in</t>
+  </si>
+  <si>
+    <t>My check in was flawless thanks to Tatiana, more motels should have people like her.. She made it so pleasant, This alone would make you want to come back and stay, easy to get to location and not far from town.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2018</t>
+  </si>
+  <si>
+    <t>My check in was flawless thanks to Tatiana, more motels should have people like her.. She made it so pleasant, This alone would make you want to come back and stay, easy to get to location and not far from town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r554487538-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>554487538</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r551870878-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>551870878</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r551016615-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>551016615</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r550601601-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>550601601</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>A Terrific Experience</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying at this hotel while attending a wedding in East Columbia. From Tatianna's greeting to the care given us by Tay and Ariel, this experience could not have been better. We were traveling with our daughter and her one year old and these three people were sincerely interested in us having the room that we needed and anything else that would make our stay comfortable. They were outstanding!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying at this hotel while attending a wedding in East Columbia. From Tatianna's greeting to the care given us by Tay and Ariel, this experience could not have been better. We were traveling with our daughter and her one year old and these three people were sincerely interested in us having the room that we needed and anything else that would make our stay comfortable. They were outstanding!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r546310594-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>546310594</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r539249939-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>539249939</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Attentive friendly staff</t>
+  </si>
+  <si>
+    <t>Wow, my sister got married a few minutes away from this hotel. 35+ people stayed here from my family. They always were willing to give an extra hand. They let my sister use The conference room to hold all her flower arrangement. They turned the business room into a mini hair salon. Extended breakfast on the day of the wedding knowing everyone was running around. They were quick to clean rooms and fill up breakfast. Always smiling! Right across from buccees MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Wow, my sister got married a few minutes away from this hotel. 35+ people stayed here from my family. They always were willing to give an extra hand. They let my sister use The conference room to hold all her flower arrangement. They turned the business room into a mini hair salon. Extended breakfast on the day of the wedding knowing everyone was running around. They were quick to clean rooms and fill up breakfast. Always smiling! Right across from buccees More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r532183658-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>532183658</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Very nice and friendly place to stay thanks to Arel. There is a pool to swim, an work out room also and on wednesday there is a free food an drinks. I recommend u choose here for your next inn &amp; suites vistMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Very nice and friendly place to stay thanks to Arel. There is a pool to swim, an work out room also and on wednesday there is a free food an drinks. I recommend u choose here for your next inn &amp; suites vistMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r511525726-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>511525726</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Not satisfied</t>
+  </si>
+  <si>
+    <t>No breakfast available no milk and juice. Advises manager. Need more staff very short staff. Website of la quinta in Angleton mislead those are not accurate pictures. Please remove those pictures online. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>No breakfast available no milk and juice. Advises manager. Need more staff very short staff. Website of la quinta in Angleton mislead those are not accurate pictures. Please remove those pictures online. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r508775450-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>508775450</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kameshia </t>
+  </si>
+  <si>
+    <t>I want to start out by saying I've been at this location since March and I appreciate the great customer service here and have developed friendships with some like are like family to me now, like kameshia goes out of her way to do her job and make everyone feel welcome. I believe she is a great asset to this company. I also wanna say that I love Wednesday social hour and that ï see week after week Ms. DEBRA ,ARIEL,MILTON and KAMESHIA, be very attentive to myself and others and enjoy good food and good laughs. Thank everyone for making our stay enjoyableMoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>I want to start out by saying I've been at this location since March and I appreciate the great customer service here and have developed friendships with some like are like family to me now, like kameshia goes out of her way to do her job and make everyone feel welcome. I believe she is a great asset to this company. I also wanna say that I love Wednesday social hour and that ï see week after week Ms. DEBRA ,ARIEL,MILTON and KAMESHIA, be very attentive to myself and others and enjoy good food and good laughs. Thank everyone for making our stay enjoyableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r506003235-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>506003235</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>She has fantastic customer service. Very active and attentive. She's also very welcome gives you a truth warmth of coming to la quinta. Definitely someone you want to keep in you staff. Really give the company a good impression. Also rooms are very clean 5he whole hotel is very well kept beat laquinta I've been too working for cat-spec. Great management also Roseanne has kept you guys running great I've been here on and off since March so I know the ups and downs but this is a great la quinta and hope to come here again MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>She has fantastic customer service. Very active and attentive. She's also very welcome gives you a truth warmth of coming to la quinta. Definitely someone you want to keep in you staff. Really give the company a good impression. Also rooms are very clean 5he whole hotel is very well kept beat laquinta I've been too working for cat-spec. Great management also Roseanne has kept you guys running great I've been here on and off since March so I know the ups and downs but this is a great la quinta and hope to come here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r496678699-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>496678699</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r494790792-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>494790792</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place! </t>
+  </si>
+  <si>
+    <t>I was only in town for one night after driving all night. Check in was speedy which was great! The room was clean, smelled fresh and the AC cold. Breakfast was good, lots of variety to chose from. The staff was friendly and welcoming. Looking to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I was only in town for one night after driving all night. Check in was speedy which was great! The room was clean, smelled fresh and the AC cold. Breakfast was good, lots of variety to chose from. The staff was friendly and welcoming. Looking to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r494787072-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>494787072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation policy </t>
+  </si>
+  <si>
+    <t>I was in town for business but my plans changed and had to cancel my trip. Because I made my reservation after 6 pm and cancelled after that I was charged a no show fee. I called the call center and was told to call the hotel. I spoke with the manager about it and she apologized and was very nice. She reimbursed me and went out of her way to make sure everything was fine. Although I didn't stay I would recommend this place just for this reason. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for business but my plans changed and had to cancel my trip. Because I made my reservation after 6 pm and cancelled after that I was charged a no show fee. I called the call center and was told to call the hotel. I spoke with the manager about it and she apologized and was very nice. She reimbursed me and went out of her way to make sure everything was fine. Although I didn't stay I would recommend this place just for this reason. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r489272919-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>489272919</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel In Angleton</t>
+  </si>
+  <si>
+    <t>Spacious and clean hotel.  Great for families.Courteous staff.  Complimentary breakfast definitely helps start the day.  Right next door to Buccees! Close to major restaurants and retail shops.  Hotel easy to find off highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Spacious and clean hotel.  Great for families.Courteous staff.  Complimentary breakfast definitely helps start the day.  Right next door to Buccees! Close to major restaurants and retail shops.  Hotel easy to find off highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r487524586-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>487524586</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Clean and ok</t>
+  </si>
+  <si>
+    <t>There is nothing special about this place. It needs updates but allows pets.  Close to the Springs wedding venue.   If they updated the hotel, they could bring in a lot of wedding guests. Picnic area and grill area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r487216126-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>487216126</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>This hotel/motel is clean and comfortable.  The breakfast items are good enough.  The coffee is good.  Always enjoy staying at this LaQuinta. You have to call and book the reservation well in advance as this one is very popular and usually full.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel/motel is clean and comfortable.  The breakfast items are good enough.  The coffee is good.  Always enjoy staying at this LaQuinta. You have to call and book the reservation well in advance as this one is very popular and usually full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r479736752-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>479736752</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Incredibly Kind</t>
+  </si>
+  <si>
+    <t>I stayed for a 2 night business trip. The room was clean, bed was comfortable and the pillows were heaven for me. I slept so well. I went down for breakfast in the morning and the food was delicious. Rosie asked if I needed anything on several occasions, her hospitality is impeccable. Rosie made me feel like I was "home". Thanks. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>I stayed for a 2 night business trip. The room was clean, bed was comfortable and the pillows were heaven for me. I slept so well. I went down for breakfast in the morning and the food was delicious. Rosie asked if I needed anything on several occasions, her hospitality is impeccable. Rosie made me feel like I was "home". Thanks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r479343095-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>479343095</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Appreciate the comfort</t>
+  </si>
+  <si>
+    <t>I really appreciate the time that Crystal and Ty-shell took out to make it a comfortable to stay at your location. When ever their was a problem. Ms. Crystal took care of it. She made sure that the accommodation was well taken care of. Ms. Ty-shell was on point with making sure our room was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I really appreciate the time that Crystal and Ty-shell took out to make it a comfortable to stay at your location. When ever their was a problem. Ms. Crystal took care of it. She made sure that the accommodation was well taken care of. Ms. Ty-shell was on point with making sure our room was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r477793395-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>477793395</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent service !! (TY &amp;KRYSTAL )</t>
+  </si>
+  <si>
+    <t>I love it!! Pet friendly and great customer service from housekeeper Ty and great customer service from Krystal at the front desk. I've been staying here over a month and very pleased with all the services. Thank you so very muchMoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2017</t>
+  </si>
+  <si>
+    <t>I love it!! Pet friendly and great customer service from housekeeper Ty and great customer service from Krystal at the front desk. I've been staying here over a month and very pleased with all the services. Thank you so very muchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r469252842-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>469252842</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r468535362-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>468535362</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Thank you, Crystal!</t>
+  </si>
+  <si>
+    <t>My son reserved a block of rooms for two nights for out of town guests coming for his wedding on Feb 24, 2017.  I only needed the room for the night of the wedding and Crystal, who I learned was new to this location, did an awesome job getting my reservation for only the one night versus two night minimum that was apparently how the block of rooms was set up (although my son did not recall being told that).Anyways, Crystal checked with her manager and called me back to let me know I could book the room for the one night.  I really appreciate her diligence in helping me out.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>My son reserved a block of rooms for two nights for out of town guests coming for his wedding on Feb 24, 2017.  I only needed the room for the night of the wedding and Crystal, who I learned was new to this location, did an awesome job getting my reservation for only the one night versus two night minimum that was apparently how the block of rooms was set up (although my son did not recall being told that).Anyways, Crystal checked with her manager and called me back to let me know I could book the room for the one night.  I really appreciate her diligence in helping me out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r466259514-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>466259514</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel from January 17 till March the 7, very accommodating Hotel the staff is excellent Rosie in the breakfast area was by far a hard working person always going out of Her way for the Guest  Deedee in Housekeeping always went out of Her way too. Roseanne at the front Desk was always willing to help and I appreciated that. If your coming to Angleton I would stay there every time. Management goes the extra mile to help the Guest every time great Job!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel from January 17 till March the 7, very accommodating Hotel the staff is excellent Rosie in the breakfast area was by far a hard working person always going out of Her way for the Guest  Deedee in Housekeeping always went out of Her way too. Roseanne at the front Desk was always willing to help and I appreciated that. If your coming to Angleton I would stay there every time. Management goes the extra mile to help the Guest every time great Job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r440258901-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>440258901</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Qulity Sleep</t>
+  </si>
+  <si>
+    <t>This hotel was very friendly and accommodating. We asked first floor by the doors and that is exactly what we got. The two room king suite was large and spacious. We were able to workout in the room. The breakfast was good. Would recommend it again to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was very friendly and accommodating. We asked first floor by the doors and that is exactly what we got. The two room king suite was large and spacious. We were able to workout in the room. The breakfast was good. Would recommend it again to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r439520061-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>439520061</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Perfect Location</t>
+  </si>
+  <si>
+    <t>If you are looking for a nice place to stay for a wedding at "The Springs", this is it.  It is less than five minutes from the venue with easy access on and off of Hwy. 288.  Seems to be a fairly new motel with clean rooms, comfortable beds, and nice complimentary hot breakfast.  MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are looking for a nice place to stay for a wedding at "The Springs", this is it.  It is less than five minutes from the venue with easy access on and off of Hwy. 288.  Seems to be a fairly new motel with clean rooms, comfortable beds, and nice complimentary hot breakfast.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r437390833-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>437390833</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Angleton Visit</t>
+  </si>
+  <si>
+    <t>Very accessible facility to arrive at, with a helpful and knowledgeable staff. Beautiful looking facility in a very quality location.  Located to many areas of town.  Great service by staff upon arriving.  Complementary breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very accessible facility to arrive at, with a helpful and knowledgeable staff. Beautiful looking facility in a very quality location.  Located to many areas of town.  Great service by staff upon arriving.  Complementary breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r425278119-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>425278119</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>great staff</t>
+  </si>
+  <si>
+    <t>very accommodating staff. would definitely stay there again. moved breakfast time up by 30 minutes so many of us could eat before leaving early. need more soft pillows, not all of us use a firm pillow.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded October 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2016</t>
+  </si>
+  <si>
+    <t>very accommodating staff. would definitely stay there again. moved breakfast time up by 30 minutes so many of us could eat before leaving early. need more soft pillows, not all of us use a firm pillow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r415998660-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>415998660</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great location with friendly staff! The hotel is kept very clean and the breakfast is good!  I travel to this location to check on my rent house and to visit with family.  Will schedule all of my future stays at this Hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Great location with friendly staff! The hotel is kept very clean and the breakfast is good!  I travel to this location to check on my rent house and to visit with family.  Will schedule all of my future stays at this Hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r409119930-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>409119930</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>friday night in Angleton</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and relaxing returning to this unit monthly with a smiles on our faces.  Staff is always friendly, pool is always clean and fresh, breakfast is always more than satisfying.  Location is perfect for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>LQ6184GM, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and relaxing returning to this unit monthly with a smiles on our faces.  Staff is always friendly, pool is always clean and fresh, breakfast is always more than satisfying.  Location is perfect for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r390039892-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>390039892</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Laquinta Angleton texas</t>
+  </si>
+  <si>
+    <t>Lovely hotel but for the location room cost is way too high.   The breakfast is very nice.  The room are very nice as well.  The location is more for business than pleasure.  The town itself doesn't offer anything for the family or couples.  You have to drive to Lake Jackson to shop or entertain.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r385461769-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>385461769</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Family and Pet Friendly</t>
+  </si>
+  <si>
+    <t>The staff were friendly and helpful.  Many guests had been evacuated from their homes and had their dogs with them. The walls seem to be sound proof as I did not hear any barking or other noise. Fresh linens were plentiful. No complaints from this guest in any way.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r383337262-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>383337262</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Hotel Good - Oscar (Desk Clerk) Terrible</t>
+  </si>
+  <si>
+    <t>Long story short, I booked this room thru my usual online source.  I always phone the front desk the day before arrival to confirm the reservation and this time I was informed that only single king beds were available when the reservation was made.  I requested a pair of doubles and Oscar stated that 2 rooms were available but in a rather sarcastic tone said that I would need the online source to make the changed in my reservation.  I informed him that I've never needed to do this in the past with my travels but would comply.  The online agency phoned me to state that not only did Oscar seem unwilling to help, he also wanted an additional $79 to move me to a room with 2 beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Long story short, I booked this room thru my usual online source.  I always phone the front desk the day before arrival to confirm the reservation and this time I was informed that only single king beds were available when the reservation was made.  I requested a pair of doubles and Oscar stated that 2 rooms were available but in a rather sarcastic tone said that I would need the online source to make the changed in my reservation.  I informed him that I've never needed to do this in the past with my travels but would comply.  The online agency phoned me to state that not only did Oscar seem unwilling to help, he also wanted an additional $79 to move me to a room with 2 beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r358349581-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>358349581</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>La Quinta Angleton,Tx</t>
+  </si>
+  <si>
+    <t>VERY nice and clean. Professional staff, VERY clean rooms and a very good night's sleep. A great place to stay!  Breakfast wasn't terrible, but was lacking in choices.  Also, would have been nice to have larger coffee cups available!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r356704767-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>356704767</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Marisol, You were the best to see I was taken care of. I appreciate you and the manager being so polite and professional. It was a pleasure staying with you. I will find another reason to stay at this hotel. Thank goodness you had one room left.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r349412043-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>349412043</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Water Logged</t>
+  </si>
+  <si>
+    <t>I was asked to stay here so I could be close to home. They made a difficult situation easy. The staff was very friendly and they made me feel as if l was home. If l have to do it again l will and if know any one coming to town, l will recommend this location.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r330629141-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>330629141</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Poor Quality - Bad Wifi</t>
+  </si>
+  <si>
+    <t>I chose to stay at this hotel because it offered "Very Fast Wifi". The first night I was there the wifi only worked in parts of the room. I complained and was told they would work on it but it never improved. That morning I first used the shower only to find out the water pressure was so low I could not engage the shower function and had to take a wash cloth bath and was 10 min late for my meeting.  Second night they moved me to a new room. Much better water pressure. Slightly better wifi signal but this night it kept dropping me from the network. Plus the shower head hole was cut in a crazy way and so adjusting it meant almost pulling it out of the wall.  Breakfast was sub par for the similar style hotels I have stayed in on my travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>LQ6184GM, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>I chose to stay at this hotel because it offered "Very Fast Wifi". The first night I was there the wifi only worked in parts of the room. I complained and was told they would work on it but it never improved. That morning I first used the shower only to find out the water pressure was so low I could not engage the shower function and had to take a wash cloth bath and was 10 min late for my meeting.  Second night they moved me to a new room. Much better water pressure. Slightly better wifi signal but this night it kept dropping me from the network. Plus the shower head hole was cut in a crazy way and so adjusting it meant almost pulling it out of the wall.  Breakfast was sub par for the similar style hotels I have stayed in on my travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r321509076-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>321509076</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This place is a refreshing spot in the midst of a lot of hustle in construction areas.  It is clean, the staff is welcoming and helpful, and they have added a hot breakfast (which makes it a unique La Quinta).  It is small, they remember repeat guests, and the rooms are above the norm for this brand.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r279335491-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>279335491</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>OK stay, though room smelled of mildew</t>
+  </si>
+  <si>
+    <t>Check in was quick and room seemed clean, but bathroom did have signs of mold caulked/painted over.  The room smelled strong of damp mildew.  Being fully booked we couldn't move to another room, but the front desk was accommodating in letting us leave an air evacuation machine four a few hours.  That and leaving the bathroom exhaust on did help a slight bit, but our kids with bad allergies were already starting to get runny noses and red eyes just from a few hrs.  Since we couldn't move, I went to the local Wal-Mart bought a small room HEPA filter and let than run continuous in the room for the whole weekend stay.  You could tell after a few hours the HEPA filter was really clearing the room and we had no allergy issues in the AM.  Basically, if we can we'll probably take the little desktop filter for any hotel stays.  Back to the hotel, halls and general areas seemed clean and ice/vending is available on each floor.  Close by is a Bucees for you late night cravings or morning cup of coffee.  Each room having a firdge and microwave was  nice to allow us to us/buy our own food. The hotel did have a breakfast available, but not meats and only boiled eggs if you are paleo or low carb. Pool needs more renovating as there is mold and dark spots in a large number of places.  The...Check in was quick and room seemed clean, but bathroom did have signs of mold caulked/painted over.  The room smelled strong of damp mildew.  Being fully booked we couldn't move to another room, but the front desk was accommodating in letting us leave an air evacuation machine four a few hours.  That and leaving the bathroom exhaust on did help a slight bit, but our kids with bad allergies were already starting to get runny noses and red eyes just from a few hrs.  Since we couldn't move, I went to the local Wal-Mart bought a small room HEPA filter and let than run continuous in the room for the whole weekend stay.  You could tell after a few hours the HEPA filter was really clearing the room and we had no allergy issues in the AM.  Basically, if we can we'll probably take the little desktop filter for any hotel stays.  Back to the hotel, halls and general areas seemed clean and ice/vending is available on each floor.  Close by is a Bucees for you late night cravings or morning cup of coffee.  Each room having a firdge and microwave was  nice to allow us to us/buy our own food. The hotel did have a breakfast available, but not meats and only boiled eggs if you are paleo or low carb. Pool needs more renovating as there is mold and dark spots in a large number of places.  The Jacuzzi also was not functioning and didnt seem to get any warmer than the full pool.    Overall, an ok stay, but we will probably be trying somewhere else next time or even camp in a park.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Check in was quick and room seemed clean, but bathroom did have signs of mold caulked/painted over.  The room smelled strong of damp mildew.  Being fully booked we couldn't move to another room, but the front desk was accommodating in letting us leave an air evacuation machine four a few hours.  That and leaving the bathroom exhaust on did help a slight bit, but our kids with bad allergies were already starting to get runny noses and red eyes just from a few hrs.  Since we couldn't move, I went to the local Wal-Mart bought a small room HEPA filter and let than run continuous in the room for the whole weekend stay.  You could tell after a few hours the HEPA filter was really clearing the room and we had no allergy issues in the AM.  Basically, if we can we'll probably take the little desktop filter for any hotel stays.  Back to the hotel, halls and general areas seemed clean and ice/vending is available on each floor.  Close by is a Bucees for you late night cravings or morning cup of coffee.  Each room having a firdge and microwave was  nice to allow us to us/buy our own food. The hotel did have a breakfast available, but not meats and only boiled eggs if you are paleo or low carb. Pool needs more renovating as there is mold and dark spots in a large number of places.  The...Check in was quick and room seemed clean, but bathroom did have signs of mold caulked/painted over.  The room smelled strong of damp mildew.  Being fully booked we couldn't move to another room, but the front desk was accommodating in letting us leave an air evacuation machine four a few hours.  That and leaving the bathroom exhaust on did help a slight bit, but our kids with bad allergies were already starting to get runny noses and red eyes just from a few hrs.  Since we couldn't move, I went to the local Wal-Mart bought a small room HEPA filter and let than run continuous in the room for the whole weekend stay.  You could tell after a few hours the HEPA filter was really clearing the room and we had no allergy issues in the AM.  Basically, if we can we'll probably take the little desktop filter for any hotel stays.  Back to the hotel, halls and general areas seemed clean and ice/vending is available on each floor.  Close by is a Bucees for you late night cravings or morning cup of coffee.  Each room having a firdge and microwave was  nice to allow us to us/buy our own food. The hotel did have a breakfast available, but not meats and only boiled eggs if you are paleo or low carb. Pool needs more renovating as there is mold and dark spots in a large number of places.  The Jacuzzi also was not functioning and didnt seem to get any warmer than the full pool.    Overall, an ok stay, but we will probably be trying somewhere else next time or even camp in a park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r275592552-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>275592552</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t>The room was clean but in the first room the tv didn't work the room they moved me to the AC didn't work well, I put it at 68 and it would get below 75 plus it was humid in the room.  I couldn't get wifi and barely got cell servic.   Breakfast, eh but the Staff was excellent.  Also, the pool was closed.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r278910726-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>278910726</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>Rates are far too high considering the service provided. A basic musty room with mediocre AC and poor WiFi should not cost more than any comparable room. Breakfast was sparse and poorly maintained.  personnel were less-than-friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r270608855-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>270608855</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>On Point La Quinta!</t>
+  </si>
+  <si>
+    <t>Stayed at this property on business and received excellent customer service!  The staff were very attentive and despite renovation construction the hotel was in order and very clean.  The room was terrific and the breakfast nicely layed out and stocked.  I would recommend this property!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r256644909-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>256644909</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Angleton Review</t>
+  </si>
+  <si>
+    <t>Good things:  Very clean, staff very helpful and friendly, in process of updating breakfest area, and selection of food items, pet friendly, great beds   Things that need improving:  Wi-Fi almost impossible to get.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Mike P, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Good things:  Very clean, staff very helpful and friendly, in process of updating breakfest area, and selection of food items, pet friendly, great beds   Things that need improving:  Wi-Fi almost impossible to get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r253152789-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>253152789</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>So So Stay</t>
+  </si>
+  <si>
+    <t>Reason for trip: Funeral in West Columbia
+Upon check in I inquired about WIFI code and was told to use strongest signal. We went up to the room which upon first glance appeared tidy, clean, and neat, but did have a strange musty odor. After a while of unsuccessful attempts at the wifi we asked the front desk again about the connection and were told that "we haven't had wifi for 3 days" from a different person than the one who checked us in...had we known we wouldn't have stayed - my daughter had college homework that was an online assignment due the same weekend so the lack of wifi caused a great slowdown in her assignment.
+Moving on... As a remodeling contractor I am aware of and critical of bad and shoddy work. This hotel has recently undergone a facelift and could have looked nice if the work was better. Unfortunately the quality of work is sub-standard at best. Bad texturing was painted over, fixtures had paint on them, bad areas in walls left unrepaired and / or painted, mold in the shower just caulked over and not cleaned / removed BEFORE caulking, water stains on bath ceiling painted over (hence the musty smell) and not sealed properly before painting, dead bugs in light fixture globe in bath, etc....on and on.
+ Too bad about all the bad work because they had spent good money on new flooring, furniture, vanities...Reason for trip: Funeral in West ColumbiaUpon check in I inquired about WIFI code and was told to use strongest signal. We went up to the room which upon first glance appeared tidy, clean, and neat, but did have a strange musty odor. After a while of unsuccessful attempts at the wifi we asked the front desk again about the connection and were told that "we haven't had wifi for 3 days" from a different person than the one who checked us in...had we known we wouldn't have stayed - my daughter had college homework that was an online assignment due the same weekend so the lack of wifi caused a great slowdown in her assignment.Moving on... As a remodeling contractor I am aware of and critical of bad and shoddy work. This hotel has recently undergone a facelift and could have looked nice if the work was better. Unfortunately the quality of work is sub-standard at best. Bad texturing was painted over, fixtures had paint on them, bad areas in walls left unrepaired and / or painted, mold in the shower just caulked over and not cleaned / removed BEFORE caulking, water stains on bath ceiling painted over (hence the musty smell) and not sealed properly before painting, dead bugs in light fixture globe in bath, etc....on and on. Too bad about all the bad work because they had spent good money on new flooring, furniture, vanities in baths, and other furnishings. But as I've heard said, "You cant dress up a pig" and that's all they had done. Some people wont notice the flawed work but after spending some good $ on what they had done it should look way better. Evidently the contractor had absolutely no QC or standards of good quality. Management - If it were closer to where I live I would gladly come do a detailed punch out list and take care of all your bad work - contact contractor asap and have them resolve all these issues before paying them in full!Breakfast was not good either. I've stayed at nicer places for less money with better breakfasts and working wifi.My advice: Try another place or go to Lake Jackson where there are more hotels to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>Reason for trip: Funeral in West Columbia
+Upon check in I inquired about WIFI code and was told to use strongest signal. We went up to the room which upon first glance appeared tidy, clean, and neat, but did have a strange musty odor. After a while of unsuccessful attempts at the wifi we asked the front desk again about the connection and were told that "we haven't had wifi for 3 days" from a different person than the one who checked us in...had we known we wouldn't have stayed - my daughter had college homework that was an online assignment due the same weekend so the lack of wifi caused a great slowdown in her assignment.
+Moving on... As a remodeling contractor I am aware of and critical of bad and shoddy work. This hotel has recently undergone a facelift and could have looked nice if the work was better. Unfortunately the quality of work is sub-standard at best. Bad texturing was painted over, fixtures had paint on them, bad areas in walls left unrepaired and / or painted, mold in the shower just caulked over and not cleaned / removed BEFORE caulking, water stains on bath ceiling painted over (hence the musty smell) and not sealed properly before painting, dead bugs in light fixture globe in bath, etc....on and on.
+ Too bad about all the bad work because they had spent good money on new flooring, furniture, vanities...Reason for trip: Funeral in West ColumbiaUpon check in I inquired about WIFI code and was told to use strongest signal. We went up to the room which upon first glance appeared tidy, clean, and neat, but did have a strange musty odor. After a while of unsuccessful attempts at the wifi we asked the front desk again about the connection and were told that "we haven't had wifi for 3 days" from a different person than the one who checked us in...had we known we wouldn't have stayed - my daughter had college homework that was an online assignment due the same weekend so the lack of wifi caused a great slowdown in her assignment.Moving on... As a remodeling contractor I am aware of and critical of bad and shoddy work. This hotel has recently undergone a facelift and could have looked nice if the work was better. Unfortunately the quality of work is sub-standard at best. Bad texturing was painted over, fixtures had paint on them, bad areas in walls left unrepaired and / or painted, mold in the shower just caulked over and not cleaned / removed BEFORE caulking, water stains on bath ceiling painted over (hence the musty smell) and not sealed properly before painting, dead bugs in light fixture globe in bath, etc....on and on. Too bad about all the bad work because they had spent good money on new flooring, furniture, vanities in baths, and other furnishings. But as I've heard said, "You cant dress up a pig" and that's all they had done. Some people wont notice the flawed work but after spending some good $ on what they had done it should look way better. Evidently the contractor had absolutely no QC or standards of good quality. Management - If it were closer to where I live I would gladly come do a detailed punch out list and take care of all your bad work - contact contractor asap and have them resolve all these issues before paying them in full!Breakfast was not good either. I've stayed at nicer places for less money with better breakfasts and working wifi.My advice: Try another place or go to Lake Jackson where there are more hotels to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r252849117-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>252849117</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Plan to eat breakfast elsewhere. A minimal cold breakfast is available. The rooms were nice and clean, as well as, the lobby. The one staff member at the desk when I checked in was friendly and appeared to be knowledgeable. Once her shift was over, I saw no other staff at the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Plan to eat breakfast elsewhere. A minimal cold breakfast is available. The rooms were nice and clean, as well as, the lobby. The one staff member at the desk when I checked in was friendly and appeared to be knowledgeable. Once her shift was over, I saw no other staff at the desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r244775320-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>244775320</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>Not too good- Lots of work needs to be done at hotel. Heat and air not quality.  Room NOT cleaned and this is typical of that hotel.  TV did not work.  Workout equipment broken. Furniture shabby.  Sheets old and cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Mike P, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Not too good- Lots of work needs to be done at hotel. Heat and air not quality.  Room NOT cleaned and this is typical of that hotel.  TV did not work.  Workout equipment broken. Furniture shabby.  Sheets old and cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r241206206-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>241206206</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay in Angleton.</t>
+  </si>
+  <si>
+    <t>Beds are horizontal.   Showers are wet and warm. Coffee is instant from a machine. It is what it is, but it is in the right location,  and just far enough off the highway to be quiet at night.    Continental breakfast was a coffee machine, milk, orange juice, cereals, one of those little waffle machines that makes waffles in the shape of the state of Texas, boiled eggs, bagles and muffins.   Very typical.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Beds are horizontal.   Showers are wet and warm. Coffee is instant from a machine. It is what it is, but it is in the right location,  and just far enough off the highway to be quiet at night.    Continental breakfast was a coffee machine, milk, orange juice, cereals, one of those little waffle machines that makes waffles in the shape of the state of Texas, boiled eggs, bagles and muffins.   Very typical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r240860553-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>240860553</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Room</t>
+  </si>
+  <si>
+    <t>We stayed here during the County Fair in October.  This hotel is located in a convenient location.  The rooms are clean and quiet.  The staff are attentive and cheerful.  We will stay here again next year at fair time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We stayed here during the County Fair in October.  This hotel is located in a convenient location.  The rooms are clean and quiet.  The staff are attentive and cheerful.  We will stay here again next year at fair time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r220578456-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>220578456</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>No Customer Service</t>
+  </si>
+  <si>
+    <t>Let start with check in. We asked over 4 months ago for rooms next to each other. We have two small children that want to be with their grandparents. Then we asked 2 weeks ago and they said they would accommodate. We end up 4 rooms down from our party and told their were no rooms closer, yet they are cleaning the room across the hall.Next, AC doesn't cool down after 4 hours of running on 60 with no one in the room. Then we are told sorry, nothing we can do. Oh, by the way, we do have 2 rooms but we have to hold them until 2a before we can move you. Sorry but I paid and checked in and you aren't holding up your end of the agreement. I am sitting in the hot room and no where to go and no help in sight. Mark Patel needs to call me so we can work this out. In TX we call this piss poor service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Let start with check in. We asked over 4 months ago for rooms next to each other. We have two small children that want to be with their grandparents. Then we asked 2 weeks ago and they said they would accommodate. We end up 4 rooms down from our party and told their were no rooms closer, yet they are cleaning the room across the hall.Next, AC doesn't cool down after 4 hours of running on 60 with no one in the room. Then we are told sorry, nothing we can do. Oh, by the way, we do have 2 rooms but we have to hold them until 2a before we can move you. Sorry but I paid and checked in and you aren't holding up your end of the agreement. I am sitting in the hot room and no where to go and no help in sight. Mark Patel needs to call me so we can work this out. In TX we call this piss poor service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r220389497-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>220389497</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>WiFi=only Negative</t>
+  </si>
+  <si>
+    <t>The rooms were nice and the staff extremely nice. Mu stay was work-related stay so access to WiFi from mu room was extremely important. An upgrade to the WiFi service will rate this location excellent for me!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r218808327-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>218808327</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Yet Another Business Trip</t>
+  </si>
+  <si>
+    <t>This hotel is well-located with easy access to Angleton, Lake Jackson, Freeport, West Columbia, and other cities and locations within the region.  It provides a clean, quiet, place to lay your weary head at the end of a long day within a moderately-priced accomodation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r216006590-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>216006590</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>mrs.</t>
+  </si>
+  <si>
+    <t>Hotel room good, service needs work.  This hotel really needs to work with the staff.  Seems the staff works by itself with no leadership or anyone over seeing it.  This is not the first time this has happened at this same hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r215280069-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>215280069</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and fairly new. The bed was great with many extra pillows. Had plenty of tv stations including many movie channels. I would recommend staying here. Also the room was very quiet even though there were many guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike P, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and fairly new. The bed was great with many extra pillows. Had plenty of tv stations including many movie channels. I would recommend staying here. Also the room was very quiet even though there were many guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r199864003-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>199864003</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>When in this area, I stay here because I know what to expect. The management is friendly and courteous. Breakfast is ready earlier than the posted start time, so I get to eat before leaving. Pleasant Hotel to stay in. Will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Mike P, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded June 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2014</t>
+  </si>
+  <si>
+    <t>When in this area, I stay here because I know what to expect. The management is friendly and courteous. Breakfast is ready earlier than the posted start time, so I get to eat before leaving. Pleasant Hotel to stay in. Will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r187583681-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>187583681</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>Beware! Checked in and started to get comfortable and the next room was very loud. Called downstairs and turned the lights on and looked at our bed to see quite a few bed bugs. Promptly called back the front desk and were moved to another room. If moving to another hotel had been an option I would have taken that. New room had no signs of bed bugs but not super clean either. Just gross!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r184430324-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>184430324</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel Clean and good customer service</t>
+  </si>
+  <si>
+    <t>The hotel was clean inside and nicer than what I expected for this area. Costs were a bit high for staying in Angleton but I  was happy to have a clean room and good customer service. The room near the front desk was a little noisy but I wanted to be on first floor.  The area is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Mike P, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean inside and nicer than what I expected for this area. Costs were a bit high for staying in Angleton but I  was happy to have a clean room and good customer service. The room near the front desk was a little noisy but I wanted to be on first floor.  The area is convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r184444005-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>184444005</t>
+  </si>
+  <si>
+    <t>prefer not to answer</t>
+  </si>
+  <si>
+    <t>Check in was easy.  There was a very musky smell in the hotel hallways and the room was very musky odor.  The air conditioner did not work, I could have opened my window if I had any and been cooler in the room.  The bathroom was in very poor shape.  The location is decent and I would not recommend this hotel to any friends or family.  My overall experience was very poor at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Check in was easy.  There was a very musky smell in the hotel hallways and the room was very musky odor.  The air conditioner did not work, I could have opened my window if I had any and been cooler in the room.  The bathroom was in very poor shape.  The location is decent and I would not recommend this hotel to any friends or family.  My overall experience was very poor at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r181188784-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>181188784</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Only place to stay in Angleton Tx</t>
+  </si>
+  <si>
+    <t>Our family has had Standing reservations for past 6 years and will continue doing so during Fair/Rodeo. Clean, comfortable rooms with Super customer service. Met with simling,happy employees upon check in and hassle free check out service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family has had Standing reservations for past 6 years and will continue doing so during Fair/Rodeo. Clean, comfortable rooms with Super customer service. Met with simling,happy employees upon check in and hassle free check out service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r179686776-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>179686776</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r179648632-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>179648632</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Clean comfortable rooms.</t>
+  </si>
+  <si>
+    <t>Stayed here during a business trip. The property is well maintained, the staff friendly and helpful. The rooms are large and comfortable. The exercise room was adequate as was the breakfast. The bed was comfortable with a generous amount of pillows. I had a room on the grround floor next to the elevator and was concerned about noise but the room was perfectly quiet. A pleasant place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here during a business trip. The property is well maintained, the staff friendly and helpful. The rooms are large and comfortable. The exercise room was adequate as was the breakfast. The bed was comfortable with a generous amount of pillows. I had a room on the grround floor next to the elevator and was concerned about noise but the room was perfectly quiet. A pleasant place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r163555887-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>163555887</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Mike P, General Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r158904987-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>158904987</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel for a good price.</t>
+  </si>
+  <si>
+    <t>We had to stay at this hotel for a night when we were moving to Angleton.  The price was great and the hotel was very clean.  The breakfast was great and the location is excellent.  This should be your hotel if you drive through Angleton.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We had to stay at this hotel for a night when we were moving to Angleton.  The price was great and the hotel was very clean.  The breakfast was great and the location is excellent.  This should be your hotel if you drive through Angleton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r151969447-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>151969447</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r139766003-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>139766003</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>The nicest hotel in Angleton, but that's not saying much</t>
+  </si>
+  <si>
+    <t>Angleton is a small town and there are not many hotel choices.  This is the newest, most modern hotel, and the location is great.  It's convenient to the Brazoria County Courthouse, which was ideal since I was in town for a probate matter before the court.  That said, I wouldn't choose this hotel again if it wasn't the only real option. The walls are thin and sound travels easily from the hallway into your room, so expect to be awakened by closing doors and running kids. Breakfast was terrible, as there was very little selection and the "hostess" was sitting at a table talking to a friend, and couldn't be bothered.  She seemed pretty put out when I tried to ask her how to operate the unusual coffee maker/dispenser - which by the way made terrible coffee that I had to throw out. The room itself had a very musty/mildew smell, and I worried that the smell would linger on my clothes after leaving. It also didn't seem really clean. The bed was way more firm and not as comfortable as the beds at other comparable moderate-price hotels, not even at other La Quintas where we have stayed recently. But the sheets and pillows were good. The hotel is fine for quick stays, but is not a place I would linger for more than a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Angleton is a small town and there are not many hotel choices.  This is the newest, most modern hotel, and the location is great.  It's convenient to the Brazoria County Courthouse, which was ideal since I was in town for a probate matter before the court.  That said, I wouldn't choose this hotel again if it wasn't the only real option. The walls are thin and sound travels easily from the hallway into your room, so expect to be awakened by closing doors and running kids. Breakfast was terrible, as there was very little selection and the "hostess" was sitting at a table talking to a friend, and couldn't be bothered.  She seemed pretty put out when I tried to ask her how to operate the unusual coffee maker/dispenser - which by the way made terrible coffee that I had to throw out. The room itself had a very musty/mildew smell, and I worried that the smell would linger on my clothes after leaving. It also didn't seem really clean. The bed was way more firm and not as comfortable as the beds at other comparable moderate-price hotels, not even at other La Quintas where we have stayed recently. But the sheets and pillows were good. The hotel is fine for quick stays, but is not a place I would linger for more than a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r139433033-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>139433033</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This was a nice moderately priced hotel. The bathrooms could be cleaner but overall not too bad. I carry Lysol so I was able to spray &amp; wipe away the obvious grime.  With Lysol on hand I would stay here again. It was quiet &amp; the staff competent.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice moderately priced hotel. The bathrooms could be cleaner but overall not too bad. I carry Lysol so I was able to spray &amp; wipe away the obvious grime.  With Lysol on hand I would stay here again. It was quiet &amp; the staff competent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r138158365-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>138158365</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Mike P, Manager at La Quinta Inn &amp; Suites Angleton, responded to this reviewResponded August 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r133328145-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>133328145</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel with sound issues</t>
+  </si>
+  <si>
+    <t>This is one of LaQuinta's new style units similar to ones we have stayed in before and it has similar problems. There is not adequate sound deadening used in the walls and floors to prevent sounds from traveling from adjacent rooms.. We were "treated" to the continuous footsteps from the room above which kept us up until after 1am. During the night we were startled by someone sneezing in the room next to us. We also had both the toiler paper holder and a towel bar fall off the wall.The room was large and comfortable however.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This is one of LaQuinta's new style units similar to ones we have stayed in before and it has similar problems. There is not adequate sound deadening used in the walls and floors to prevent sounds from traveling from adjacent rooms.. We were "treated" to the continuous footsteps from the room above which kept us up until after 1am. During the night we were startled by someone sneezing in the room next to us. We also had both the toiler paper holder and a towel bar fall off the wall.The room was large and comfortable however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r133091841-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>133091841</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r132733597-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>132733597</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t>Check in person Jenny was not friendly at all. Didn't tell us what time breakfast was or what time the pool closed. They had people in the pool till 1:30 in the morning making a lot of noise. The room was very nice but the pillows sucked. Very quiet location and Lake Jackson was only minutes away. Miss Michelle was very friendly on Monday and was very helpful to us. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in person Jenny was not friendly at all. Didn't tell us what time breakfast was or what time the pool closed. They had people in the pool till 1:30 in the morning making a lot of noise. The room was very nice but the pillows sucked. Very quiet location and Lake Jackson was only minutes away. Miss Michelle was very friendly on Monday and was very helpful to us. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r129415007-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>129415007</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>great stay at very good hotel</t>
+  </si>
+  <si>
+    <t>Staff very friendly &amp; helpful.  Rooms clean &amp; comfortable.  Breakfast pretty nice bonus.  Only negative was AC wouldn't cool me as much as I prefer but it did work, so how can I complain..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Staff very friendly &amp; helpful.  Rooms clean &amp; comfortable.  Breakfast pretty nice bonus.  Only negative was AC wouldn't cool me as much as I prefer but it did work, so how can I complain..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r115912890-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>115912890</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed at La Quinta in Angleton over 4th of July weekend.  It is a great hotel.  I chose this hotel due to the proximity to Surfside Beach and it is pet friendly.  .  It is a short drive, and alot less money than stayer closer to the beach.  Rooms are large, clean and modern.  Pool looked nice, but never had time to use it.  Breakfast was average for La Quinta, ok selection, and it is complimentary.  So to get something for free these days is a added bonus. I travel with two blue heelers, and the hotel is very pet friendly, not additional money for deposit, as most La Quintas. I would stay here again, and also recommend to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at La Quinta in Angleton over 4th of July weekend.  It is a great hotel.  I chose this hotel due to the proximity to Surfside Beach and it is pet friendly.  .  It is a short drive, and alot less money than stayer closer to the beach.  Rooms are large, clean and modern.  Pool looked nice, but never had time to use it.  Breakfast was average for La Quinta, ok selection, and it is complimentary.  So to get something for free these days is a added bonus. I travel with two blue heelers, and the hotel is very pet friendly, not additional money for deposit, as most La Quintas. I would stay here again, and also recommend to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r115870468-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>115870468</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Nice Place--needs a little tweeking</t>
+  </si>
+  <si>
+    <t>This is one of the new LQs and is extremely nicely decorated and well appointed rooms.  Staff very courteous and friendly.  Room was very adequate for family visiting the Lake Jackson area and would highly recommend this location versus the ones on the 332 way towards Surfside and across from Dow.  Reasonable as well and in a convenient location!!  What we could not conceive is that there was ONE person on desk and apparentely attempting to manage the BF buffet as well.  Not fair to them.  Coffee machine totally out, milk, OJ and syrup.  This was not a breakfast buffet, it was get what you can if you are lucky.  Highly suggest to management that if they want to remain #1 on TA they pull in some more help and become competitive with other chain hotels that offer sooo much more in their BF buffets for the same price!  Other than that, this is a very nice place to stay for an overnight!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of the new LQs and is extremely nicely decorated and well appointed rooms.  Staff very courteous and friendly.  Room was very adequate for family visiting the Lake Jackson area and would highly recommend this location versus the ones on the 332 way towards Surfside and across from Dow.  Reasonable as well and in a convenient location!!  What we could not conceive is that there was ONE person on desk and apparentely attempting to manage the BF buffet as well.  Not fair to them.  Coffee machine totally out, milk, OJ and syrup.  This was not a breakfast buffet, it was get what you can if you are lucky.  Highly suggest to management that if they want to remain #1 on TA they pull in some more help and become competitive with other chain hotels that offer sooo much more in their BF buffets for the same price!  Other than that, this is a very nice place to stay for an overnight!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d1200598-r29194945-La_Quinta_Inn_Suites_Angleton-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>29194945</t>
+  </si>
+  <si>
+    <t>05/02/2009</t>
+  </si>
+  <si>
+    <t>BEST STAY EVER</t>
+  </si>
+  <si>
+    <t>This hotel is by far the best in the area.  The staff was extremely polite and helpful.  The rooms were very luxurious from the big flat screen tv's to the heavenly beds.  Extremely CLEAN!!  Definitely going back with my family when we go to surfside beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>This hotel is by far the best in the area.  The staff was extremely polite and helpful.  The rooms were very luxurious from the big flat screen tv's to the heavenly beds.  Extremely CLEAN!!  Definitely going back with my family when we go to surfside beach.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2212,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2244,5424 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>140</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>338</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>351</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+      <c r="J46" t="s">
+        <v>380</v>
+      </c>
+      <c r="K46" t="s">
+        <v>381</v>
+      </c>
+      <c r="L46" t="s">
+        <v>382</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s">
+        <v>140</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>390</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48" t="s">
+        <v>393</v>
+      </c>
+      <c r="K48" t="s">
+        <v>394</v>
+      </c>
+      <c r="L48" t="s">
+        <v>395</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>406</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s">
+        <v>140</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>407</v>
+      </c>
+      <c r="X51" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>417</v>
+      </c>
+      <c r="J52" t="s">
+        <v>418</v>
+      </c>
+      <c r="K52" t="s">
+        <v>419</v>
+      </c>
+      <c r="L52" t="s">
+        <v>420</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>407</v>
+      </c>
+      <c r="X52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>140</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>429</v>
+      </c>
+      <c r="X54" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" t="s">
+        <v>140</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>140</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>458</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>469</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>470</v>
+      </c>
+      <c r="J60" t="s">
+        <v>471</v>
+      </c>
+      <c r="K60" t="s">
+        <v>472</v>
+      </c>
+      <c r="L60" t="s">
+        <v>473</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>458</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>375</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>482</v>
+      </c>
+      <c r="X61" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>485</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>486</v>
+      </c>
+      <c r="J62" t="s">
+        <v>487</v>
+      </c>
+      <c r="K62" t="s">
+        <v>488</v>
+      </c>
+      <c r="L62" t="s">
+        <v>489</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>490</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J63" t="s">
+        <v>492</v>
+      </c>
+      <c r="K63" t="s">
+        <v>493</v>
+      </c>
+      <c r="L63" t="s">
+        <v>494</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>147</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>496</v>
+      </c>
+      <c r="X63" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>492</v>
+      </c>
+      <c r="K64" t="s">
+        <v>501</v>
+      </c>
+      <c r="L64" t="s">
+        <v>502</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>503</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>496</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+      <c r="J65" t="s">
+        <v>507</v>
+      </c>
+      <c r="K65" t="s">
+        <v>508</v>
+      </c>
+      <c r="L65" t="s">
+        <v>509</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>495</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>496</v>
+      </c>
+      <c r="X65" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>511</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>512</v>
+      </c>
+      <c r="J66" t="s">
+        <v>513</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>120</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>495</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>496</v>
+      </c>
+      <c r="X66" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" t="s">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s">
+        <v>518</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>496</v>
+      </c>
+      <c r="X67" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>521</v>
+      </c>
+      <c r="J68" t="s">
+        <v>522</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>120</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>523</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>524</v>
+      </c>
+      <c r="X68" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>531</v>
+      </c>
+      <c r="O69" t="s">
+        <v>140</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>524</v>
+      </c>
+      <c r="X69" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>533</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>534</v>
+      </c>
+      <c r="J70" t="s">
+        <v>535</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>120</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>536</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>524</v>
+      </c>
+      <c r="X70" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>540</v>
+      </c>
+      <c r="L71" t="s">
+        <v>541</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>542</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" t="s">
+        <v>546</v>
+      </c>
+      <c r="K72" t="s">
+        <v>547</v>
+      </c>
+      <c r="L72" t="s">
+        <v>548</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>542</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>524</v>
+      </c>
+      <c r="X72" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>551</v>
+      </c>
+      <c r="J73" t="s">
+        <v>552</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>120</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>553</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>554</v>
+      </c>
+      <c r="X73" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>556</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>557</v>
+      </c>
+      <c r="J74" t="s">
+        <v>558</v>
+      </c>
+      <c r="K74" t="s">
+        <v>559</v>
+      </c>
+      <c r="L74" t="s">
+        <v>560</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>561</v>
+      </c>
+      <c r="O74" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>554</v>
+      </c>
+      <c r="X74" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" t="s">
+        <v>565</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>120</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>561</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>554</v>
+      </c>
+      <c r="X75" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>566</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>561</v>
+      </c>
+      <c r="O76" t="s">
+        <v>140</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>554</v>
+      </c>
+      <c r="X76" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>572</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" t="s">
+        <v>574</v>
+      </c>
+      <c r="K77" t="s">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s">
+        <v>576</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>577</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>554</v>
+      </c>
+      <c r="X77" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>579</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>580</v>
+      </c>
+      <c r="J78" t="s">
+        <v>581</v>
+      </c>
+      <c r="K78" t="s">
+        <v>582</v>
+      </c>
+      <c r="L78" t="s">
+        <v>583</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>584</v>
+      </c>
+      <c r="O78" t="s">
+        <v>140</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>554</v>
+      </c>
+      <c r="X78" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
+      </c>
+      <c r="J79" t="s">
+        <v>588</v>
+      </c>
+      <c r="K79" t="s">
+        <v>589</v>
+      </c>
+      <c r="L79" t="s">
+        <v>590</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>584</v>
+      </c>
+      <c r="O79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>554</v>
+      </c>
+      <c r="X79" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58438</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>592</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>593</v>
+      </c>
+      <c r="J80" t="s">
+        <v>594</v>
+      </c>
+      <c r="K80" t="s">
+        <v>595</v>
+      </c>
+      <c r="L80" t="s">
+        <v>596</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>597</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>554</v>
+      </c>
+      <c r="X80" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
